--- a/files/xlsx/旗舰模型和推理模型.xlsx
+++ b/files/xlsx/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -76,13 +76,25 @@
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
+    <t xml:space="preserve">Qwen3 0.6b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen3 1.7b</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qwen3 4b</t>
   </si>
   <si>
-    <t xml:space="preserve">Phi4 reasoning plus</t>
+    <t xml:space="preserve">Qwen3 8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen3 14b</t>
   </si>
   <si>
     <t xml:space="preserve">Qwen3 30b a3b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qwen3 32b</t>
   </si>
   <si>
     <t xml:space="preserve">Qwen3 235b a22b</t>
@@ -235,44 +247,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,10 +475,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -647,89 +663,89 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="n">
-        <v>73.8</v>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>65.6</v>
-      </c>
-      <c r="D10" s="7" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>1671</v>
-      </c>
-      <c r="F10" s="7" t="n">
-        <v>54.2</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="B10" s="9" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="n">
-        <v>78</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>1936</v>
-      </c>
-      <c r="F11" s="7" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="9" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="7" t="n">
-        <v>80.4</v>
+        <v>73.8</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>70.9</v>
+        <v>65.6</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>65.8</v>
+        <v>55.9</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1974</v>
+        <v>1671</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>62.6</v>
+        <v>54.2</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>85.7</v>
+        <v>76</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D13" s="7"/>
+        <v>67.3</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>62</v>
+      </c>
       <c r="E13" s="7" t="n">
-        <v>2056</v>
+        <v>1785</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>70.7</v>
+        <v>57.5</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -740,20 +756,22 @@
         <v>22</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>88</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>79.3</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>70.4</v>
+      </c>
       <c r="D14" s="7" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="E14" s="7"/>
+        <v>64</v>
+      </c>
+      <c r="E14" s="7" t="n">
+        <v>1766</v>
+      </c>
       <c r="F14" s="7" t="n">
         <v>63.5</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="7" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -761,107 +779,195 @@
         <v>23</v>
       </c>
       <c r="B15" s="7" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>80.4</v>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>70.9</v>
+      </c>
       <c r="D15" s="7" t="n">
-        <v>81.4</v>
+        <v>65.8</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>2719</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7" t="n">
-        <v>68.1</v>
-      </c>
-      <c r="H15" s="7" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="I15" s="7" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1974</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>27</v>
+      <c r="B16" s="7" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>72.9</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>68.4</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>1977</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>65.7</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>81.5</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="n">
+        <v>2056</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>70.7</v>
+      </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="I17" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="n">
-        <v>84</v>
+        <v>78.3</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="n">
-        <v>70.4</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>63.8</v>
-      </c>
+        <v>63.5</v>
+      </c>
+      <c r="G18" s="7"/>
       <c r="H18" s="7" t="n">
-        <v>18.8</v>
+        <v>12.1</v>
       </c>
       <c r="I18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>93.4</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="E19" s="7" t="n">
+        <v>2719</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="n">
+        <v>68.1</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I19" s="7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="I21" s="7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="7" t="n">
+        <v>92</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7" t="n">
+        <v>84</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="G22" s="7" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="7" t="n">
         <v>78.9</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="n">
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7" t="n">
         <v>63.6</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/files/xlsx/旗舰模型和推理模型.xlsx
+++ b/files/xlsx/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -67,12 +67,6 @@
     <t xml:space="preserve">GPT4.1 Mini</t>
   </si>
   <si>
-    <t xml:space="preserve">Claude 3.7 Sonnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">62.3(70.3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
@@ -118,13 +112,28 @@
     <t xml:space="preserve">75（80）</t>
   </si>
   <si>
-    <t xml:space="preserve">Claude 3.7 Sonnet（thinking）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.3(80.0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78.2(84.8)</t>
+    <t xml:space="preserve">Claude  Sonnet 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70.5（85）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.4（83.8）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.7（80.2）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claude Opus 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.5(90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.6(83.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72.5(79.4)</t>
   </si>
   <si>
     <t xml:space="preserve">Gemini2.5 pro exp</t>
@@ -247,7 +256,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,10 +290,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -478,7 +483,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -632,120 +637,124 @@
       <c r="I7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="n">
-        <v>68</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="B9" s="7" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="D9" s="7" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7" t="n">
+        <v>33.2</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="C10" s="9" t="n">
-        <v>15.1</v>
-      </c>
-      <c r="D10" s="9" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="B11" s="7" t="n">
+        <v>73.8</v>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>65.6</v>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="E11" s="7" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="n">
-        <v>48.3</v>
-      </c>
-      <c r="C11" s="9" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="D11" s="9" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="n">
-        <v>33.2</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="B12" s="7" t="n">
-        <v>73.8</v>
+        <v>76</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>65.6</v>
+        <v>67.3</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>55.9</v>
+        <v>62</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1671</v>
+        <v>1785</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>54.2</v>
+        <v>57.5</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
-        <v>21</v>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>76</v>
+        <v>79.3</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>67.3</v>
+        <v>70.4</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>1785</v>
+        <v>1766</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>57.5</v>
+        <v>63.5</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -753,22 +762,22 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>79.3</v>
+        <v>80.4</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>70.4</v>
+        <v>70.9</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>64</v>
+        <v>65.8</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1766</v>
+        <v>1974</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>63.5</v>
+        <v>62.6</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -776,22 +785,22 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="7" t="n">
-        <v>80.4</v>
+        <v>81.4</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>70.9</v>
+        <v>72.9</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>65.8</v>
+        <v>68.4</v>
       </c>
       <c r="E15" s="7" t="n">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="F15" s="7" t="n">
-        <v>62.6</v>
+        <v>65.7</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -799,22 +808,20 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="7" t="n">
-        <v>81.4</v>
+        <v>85.7</v>
       </c>
       <c r="C16" s="7" t="n">
-        <v>72.9</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>68.4</v>
-      </c>
+        <v>81.5</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="7" t="n">
-        <v>1977</v>
+        <v>2056</v>
       </c>
       <c r="F16" s="7" t="n">
-        <v>65.7</v>
+        <v>70.7</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -822,116 +829,112 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="7" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="n">
-        <v>2056</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="n">
+        <v>78.3</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="7" t="n">
-        <v>70.7</v>
+        <v>63.5</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="H17" s="7" t="n">
+        <v>12.1</v>
+      </c>
       <c r="I17" s="7"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>88</v>
+        <v>93.4</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="G18" s="7"/>
+        <v>81.4</v>
+      </c>
+      <c r="E18" s="7" t="n">
+        <v>2719</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="n">
+        <v>68.1</v>
+      </c>
       <c r="H18" s="7" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14.3</v>
+      </c>
+      <c r="I18" s="7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>93.4</v>
-      </c>
       <c r="C19" s="7"/>
-      <c r="D19" s="7" t="n">
-        <v>81.4</v>
-      </c>
-      <c r="E19" s="7" t="n">
-        <v>2719</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7" t="n">
-        <v>68.1</v>
-      </c>
-      <c r="H19" s="7" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="D19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
       <c r="I19" s="7" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="D20" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="7" t="n">
-        <v>6</v>
-      </c>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D21" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="I21" s="7" t="n">
-        <v>4</v>
-      </c>
+      <c r="G21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>92</v>
@@ -954,7 +957,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="7" t="n">
         <v>78.9</v>

--- a/files/xlsx/旗舰模型和推理模型.xlsx
+++ b/files/xlsx/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -70,9 +70,6 @@
     <t xml:space="preserve">推理模型</t>
   </si>
   <si>
-    <t xml:space="preserve">Qwen3 0.6b</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qwen3 1.7b</t>
   </si>
   <si>
@@ -94,12 +91,27 @@
     <t xml:space="preserve">Qwen3 235b a22b</t>
   </si>
   <si>
+    <t xml:space="preserve">65.9（新）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepseek R1 0528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">73.1（新）</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gemini 2.5 Flash exp</t>
   </si>
   <si>
+    <t xml:space="preserve">60.6（新）</t>
+  </si>
+  <si>
     <t xml:space="preserve">OpenAI o4 mini</t>
   </si>
   <si>
+    <t xml:space="preserve">80.2（新）</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grok3 mini Reasoning</t>
   </si>
   <si>
@@ -109,9 +121,6 @@
     <t xml:space="preserve">81（84）</t>
   </si>
   <si>
-    <t xml:space="preserve">75（80）</t>
-  </si>
-  <si>
     <t xml:space="preserve">Claude  Sonnet 4</t>
   </si>
   <si>
@@ -122,18 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">72.7（80.2）</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claude Opus 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.5(90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">79.6(83.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">72.5(79.4)</t>
   </si>
   <si>
     <t xml:space="preserve">Gemini2.5 pro exp</t>
@@ -480,10 +477,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -654,38 +651,40 @@
         <v>16</v>
       </c>
       <c r="B9" s="7" t="n">
-        <v>10.7</v>
+        <v>48.3</v>
       </c>
       <c r="C9" s="7" t="n">
-        <v>15.1</v>
+        <v>36.8</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>27.9</v>
+        <v>40.1</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="n">
-        <v>12.3</v>
+        <v>33.2</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="7" t="n">
-        <v>48.3</v>
+        <v>73.8</v>
       </c>
       <c r="C10" s="7" t="n">
-        <v>36.8</v>
+        <v>65.6</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="E10" s="7"/>
+        <v>55.9</v>
+      </c>
+      <c r="E10" s="7" t="n">
+        <v>1671</v>
+      </c>
       <c r="F10" s="7" t="n">
-        <v>33.2</v>
+        <v>54.2</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -696,42 +695,42 @@
         <v>18</v>
       </c>
       <c r="B11" s="7" t="n">
-        <v>73.8</v>
+        <v>76</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>65.6</v>
+        <v>67.3</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>55.9</v>
+        <v>62</v>
       </c>
       <c r="E11" s="7" t="n">
-        <v>1671</v>
+        <v>1785</v>
       </c>
       <c r="F11" s="7" t="n">
-        <v>54.2</v>
+        <v>57.5</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="7" t="n">
-        <v>76</v>
+        <v>79.3</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>67.3</v>
+        <v>70.4</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="7" t="n">
-        <v>1785</v>
+        <v>1766</v>
       </c>
       <c r="F12" s="7" t="n">
-        <v>57.5</v>
+        <v>63.5</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -742,19 +741,19 @@
         <v>20</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>79.3</v>
+        <v>80.4</v>
       </c>
       <c r="C13" s="7" t="n">
-        <v>70.4</v>
+        <v>70.9</v>
       </c>
       <c r="D13" s="7" t="n">
-        <v>64</v>
+        <v>65.8</v>
       </c>
       <c r="E13" s="7" t="n">
-        <v>1766</v>
+        <v>1974</v>
       </c>
       <c r="F13" s="7" t="n">
-        <v>63.5</v>
+        <v>62.6</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -765,19 +764,19 @@
         <v>21</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>80.4</v>
+        <v>81.4</v>
       </c>
       <c r="C14" s="7" t="n">
-        <v>70.9</v>
+        <v>72.9</v>
       </c>
       <c r="D14" s="7" t="n">
-        <v>65.8</v>
+        <v>68.4</v>
       </c>
       <c r="E14" s="7" t="n">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>62.6</v>
+        <v>65.7</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -788,19 +787,17 @@
         <v>22</v>
       </c>
       <c r="B15" s="7" t="n">
-        <v>81.4</v>
+        <v>85.7</v>
       </c>
       <c r="C15" s="7" t="n">
-        <v>72.9</v>
-      </c>
-      <c r="D15" s="7" t="n">
-        <v>68.4</v>
-      </c>
+        <v>81.5</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="n">
-        <v>1977</v>
-      </c>
-      <c r="F15" s="7" t="n">
-        <v>65.7</v>
+        <v>2056</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -808,20 +805,14 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>81.5</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7" t="n">
-        <v>2056</v>
-      </c>
-      <c r="F16" s="7" t="n">
-        <v>70.7</v>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -829,7 +820,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>88</v>
@@ -839,8 +830,8 @@
         <v>78.3</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7" t="n">
-        <v>63.5</v>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="n">
@@ -850,7 +841,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>93.4</v>
@@ -862,7 +853,9 @@
       <c r="E18" s="7" t="n">
         <v>2719</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="G18" s="7" t="n">
         <v>68.1</v>
       </c>
@@ -875,18 +868,18 @@
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>29</v>
+      <c r="F19" s="7" t="n">
+        <v>66.7</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -896,40 +889,44 @@
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B21" s="7" t="n">
+        <v>92</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7" t="n">
+        <v>84</v>
       </c>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="7"/>
+      <c r="F21" s="7" t="n">
+        <v>70.4</v>
+      </c>
+      <c r="G21" s="7" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <v>18.8</v>
+      </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -937,41 +934,20 @@
         <v>38</v>
       </c>
       <c r="B22" s="7" t="n">
-        <v>92</v>
+        <v>78.9</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="D22" s="7" t="n">
-        <v>84</v>
-      </c>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="n">
-        <v>70.4</v>
-      </c>
-      <c r="G22" s="7" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="H22" s="7" t="n">
-        <v>18.8</v>
-      </c>
+        <v>63.6</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="7" t="n">
-        <v>78.9</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1.24791666666667" right="1.24791666666667" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/files/xlsx/旗舰模型和推理模型.xlsx
+++ b/files/xlsx/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -91,27 +91,15 @@
     <t xml:space="preserve">Qwen3 235b a22b</t>
   </si>
   <si>
-    <t xml:space="preserve">65.9（新）</t>
-  </si>
-  <si>
     <t xml:space="preserve">Deepseek R1 0528</t>
   </si>
   <si>
-    <t xml:space="preserve">73.1（新）</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gemini 2.5 Flash exp</t>
   </si>
   <si>
-    <t xml:space="preserve">60.6（新）</t>
-  </si>
-  <si>
     <t xml:space="preserve">OpenAI o4 mini</t>
   </si>
   <si>
-    <t xml:space="preserve">80.2（新）</t>
-  </si>
-  <si>
     <t xml:space="preserve">Grok3 mini Reasoning</t>
   </si>
   <si>
@@ -133,7 +121,7 @@
     <t xml:space="preserve">72.7（80.2）</t>
   </si>
   <si>
-    <t xml:space="preserve">Gemini2.5 pro exp</t>
+    <t xml:space="preserve">Gemini2.5 pro 0506</t>
   </si>
   <si>
     <t xml:space="preserve">Skywork R1V2 38b</t>
@@ -480,12 +468,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
+      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.2"/>
@@ -782,7 +770,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -796,31 +784,41 @@
       <c r="E15" s="7" t="n">
         <v>2056</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="7" t="n">
+        <v>70.7</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="B16" s="7" t="n">
+        <v>91.4</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>81</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>26</v>
       </c>
       <c r="B17" s="7" t="n">
         <v>88</v>
@@ -830,8 +828,8 @@
         <v>78.3</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
+      <c r="F17" s="7" t="n">
+        <v>63.5</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="n">
@@ -839,9 +837,9 @@
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" s="7" t="n">
         <v>93.4</v>
@@ -853,8 +851,8 @@
       <c r="E18" s="7" t="n">
         <v>2719</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>29</v>
+      <c r="F18" s="7" t="n">
+        <v>80.2</v>
       </c>
       <c r="G18" s="7" t="n">
         <v>68.1</v>
@@ -868,14 +866,14 @@
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="n">
@@ -889,49 +887,51 @@
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="7" t="n">
-        <v>92</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>90.8</v>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>83</v>
+      </c>
       <c r="D21" s="7" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="n">
-        <v>70.4</v>
+        <v>71.8</v>
       </c>
       <c r="G21" s="7" t="n">
         <v>63.8</v>
       </c>
       <c r="H21" s="7" t="n">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="I21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="7" t="n">
         <v>78.9</v>

--- a/files/xlsx/旗舰模型和推理模型.xlsx
+++ b/files/xlsx/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -76,19 +76,7 @@
     <t xml:space="preserve">Qwen3 4b</t>
   </si>
   <si>
-    <t xml:space="preserve">Qwen3 8b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen3 14b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen3 30b a3b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen3 32b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qwen3 235b a22b</t>
+    <t xml:space="preserve">Deepseek R1 0528 Qwen3 8b</t>
   </si>
   <si>
     <t xml:space="preserve">Deepseek R1 0528</t>
@@ -468,12 +456,12 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="10.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.2"/>
@@ -678,24 +666,22 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="C11" s="7" t="n">
-        <v>67.3</v>
+        <v>76.3</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>62</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>1785</v>
-      </c>
+        <v>61.1</v>
+      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="7" t="n">
-        <v>57.5</v>
+        <v>60.5</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -706,22 +692,22 @@
         <v>19</v>
       </c>
       <c r="B12" s="7" t="n">
-        <v>79.3</v>
+        <v>91.4</v>
       </c>
       <c r="C12" s="7" t="n">
-        <v>70.4</v>
+        <v>87.5</v>
       </c>
       <c r="D12" s="7" t="n">
-        <v>64</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>1766</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="7" t="n">
-        <v>63.5</v>
+        <v>73.3</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="n">
+        <v>17.7</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,22 +715,20 @@
         <v>20</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>80.4</v>
-      </c>
-      <c r="C13" s="7" t="n">
-        <v>70.9</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C13" s="7"/>
       <c r="D13" s="7" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="E13" s="7" t="n">
-        <v>1974</v>
-      </c>
+        <v>78.3</v>
+      </c>
+      <c r="E13" s="7"/>
       <c r="F13" s="7" t="n">
-        <v>62.6</v>
+        <v>63.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="n">
+        <v>12.1</v>
+      </c>
       <c r="I13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,200 +736,114 @@
         <v>21</v>
       </c>
       <c r="B14" s="7" t="n">
+        <v>93.4</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="n">
         <v>81.4</v>
       </c>
-      <c r="C14" s="7" t="n">
-        <v>72.9</v>
-      </c>
-      <c r="D14" s="7" t="n">
-        <v>68.4</v>
-      </c>
       <c r="E14" s="7" t="n">
-        <v>1977</v>
+        <v>2719</v>
       </c>
       <c r="F14" s="7" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+        <v>80.2</v>
+      </c>
+      <c r="G14" s="7" t="n">
+        <v>68.1</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I14" s="7" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="n">
-        <v>85.7</v>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>81.5</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7" t="n">
-        <v>2056</v>
-      </c>
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="7"/>
       <c r="F15" s="7" t="n">
-        <v>70.7</v>
+        <v>66.7</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="I15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="7" t="n">
-        <v>91.4</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D16" s="7" t="n">
-        <v>81</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="E16" s="7"/>
-      <c r="F16" s="7" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7" t="n">
-        <v>88</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>90.8</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>83</v>
+      </c>
       <c r="D17" s="7" t="n">
-        <v>78.3</v>
+        <v>83</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="G17" s="7"/>
+        <v>71.8</v>
+      </c>
+      <c r="G17" s="7" t="n">
+        <v>63.8</v>
+      </c>
       <c r="H17" s="7" t="n">
-        <v>12.1</v>
+        <v>18.4</v>
       </c>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>93.4</v>
+        <v>78.9</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="7" t="n">
-        <v>81.4</v>
-      </c>
-      <c r="E18" s="7" t="n">
-        <v>2719</v>
-      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
       <c r="F18" s="7" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="G18" s="7" t="n">
-        <v>68.1</v>
-      </c>
-      <c r="H18" s="7" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="I18" s="7" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="7" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>83</v>
-      </c>
-      <c r="D21" s="7" t="n">
-        <v>83</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="G21" s="7" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="H21" s="7" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="7" t="n">
-        <v>78.9</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="n">
         <v>63.6</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-    </row>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/files/xlsx/旗舰模型和推理模型.xlsx
+++ b/files/xlsx/旗舰模型和推理模型.xlsx
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Gemini2.5 pro 0506</t>
   </si>
   <si>
-    <t xml:space="preserve">Skywork R1V2 38b</t>
+    <t xml:space="preserve">MiMo VL 7B RL</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -828,14 +828,16 @@
         <v>30</v>
       </c>
       <c r="B18" s="7" t="n">
-        <v>78.9</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+        <v>67.5</v>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>58.3</v>
+      </c>
       <c r="E18" s="7"/>
-      <c r="F18" s="7" t="n">
-        <v>63.6</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>

--- a/files/xlsx/旗舰模型和推理模型.xlsx
+++ b/files/xlsx/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">Qwen3 4b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areal boba2 8b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Areal boba2 14b</t>
   </si>
   <si>
     <t xml:space="preserve">Deepseek R1 0528 Qwen3 8b</t>
@@ -456,7 +462,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -666,48 +672,38 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="7" t="n">
-        <v>86</v>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>76.3</v>
-      </c>
-      <c r="D11" s="7" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="E11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="n">
+        <v>1962</v>
+      </c>
       <c r="F11" s="7" t="n">
-        <v>60.5</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>91.4</v>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="D12" s="7" t="n">
-        <v>81</v>
-      </c>
-      <c r="E12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="n">
+        <v>2044</v>
+      </c>
       <c r="F12" s="7" t="n">
-        <v>73.3</v>
+        <v>69.1</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="7" t="n">
-        <v>17.7</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -715,20 +711,20 @@
         <v>20</v>
       </c>
       <c r="B13" s="7" t="n">
-        <v>88</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>86</v>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>76.3</v>
+      </c>
       <c r="D13" s="7" t="n">
-        <v>78.3</v>
+        <v>61.1</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="n">
-        <v>63.5</v>
+        <v>60.5</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="7" t="n">
-        <v>12.1</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -736,114 +732,156 @@
         <v>21</v>
       </c>
       <c r="B14" s="7" t="n">
-        <v>93.4</v>
-      </c>
-      <c r="C14" s="7"/>
+        <v>91.4</v>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>87.5</v>
+      </c>
       <c r="D14" s="7" t="n">
-        <v>81.4</v>
-      </c>
-      <c r="E14" s="7" t="n">
-        <v>2719</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="7" t="n">
-        <v>80.2</v>
-      </c>
-      <c r="G14" s="7" t="n">
-        <v>68.1</v>
-      </c>
+        <v>73.3</v>
+      </c>
+      <c r="G14" s="7"/>
       <c r="H14" s="7" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="I14" s="7" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17.7</v>
+      </c>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>23</v>
+      <c r="B15" s="7" t="n">
+        <v>88</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>24</v>
+      <c r="D15" s="7" t="n">
+        <v>78.3</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="n">
-        <v>66.7</v>
+        <v>63.5</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="7" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="7" t="n">
+        <v>93.4</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7" t="n">
+        <v>81.4</v>
+      </c>
+      <c r="E16" s="7" t="n">
+        <v>2719</v>
+      </c>
+      <c r="F16" s="7" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="G16" s="7" t="n">
+        <v>68.1</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I16" s="7" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="7" t="n">
-        <v>90.8</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>83</v>
-      </c>
-      <c r="D17" s="7" t="n">
-        <v>83</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="G17" s="7" t="n">
-        <v>63.8</v>
-      </c>
-      <c r="H17" s="7" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66.7</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="7" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="C18" s="7" t="n">
-        <v>52.5</v>
-      </c>
-      <c r="D18" s="7" t="n">
-        <v>58.3</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="7" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="D19" s="7" t="n">
+        <v>83</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="G19" s="7" t="n">
+        <v>63.8</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="7" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="D20" s="7" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/files/xlsx/旗舰模型和推理模型.xlsx
+++ b/files/xlsx/旗舰模型和推理模型.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -115,7 +115,10 @@
     <t xml:space="preserve">72.7（80.2）</t>
   </si>
   <si>
-    <t xml:space="preserve">Gemini2.5 pro 0506</t>
+    <t xml:space="preserve">Gemini2.5 pro 0605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">59.6(67.2)</t>
   </si>
   <si>
     <t xml:space="preserve">MiMo VL 7B RL</t>
@@ -462,7 +465,7 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.203125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -746,7 +749,7 @@
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="n">
-        <v>17.7</v>
+        <v>14</v>
       </c>
       <c r="I14" s="7"/>
     </row>
@@ -842,30 +845,28 @@
       <c r="A19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="7" t="n">
-        <v>90.8</v>
-      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="7" t="n">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D19" s="7" t="n">
-        <v>83</v>
+        <v>86.4</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="n">
-        <v>71.8</v>
-      </c>
-      <c r="G19" s="7" t="n">
-        <v>63.8</v>
+        <v>69</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="H19" s="7" t="n">
-        <v>18.4</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="7" t="n">
         <v>67.5</v>
